--- a/comunas/conf/goals.xlsx
+++ b/comunas/conf/goals.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\comunas\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl2\comunas\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BE93D-289B-43A0-A8A0-CDEFDE2E713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EBEA3-E112-4B21-9AFD-53625E479485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{FB5869D1-4111-4FBB-8E45-CB694868CE16}"/>
+    <workbookView xWindow="5250" yWindow="1485" windowWidth="38700" windowHeight="15150" xr2:uid="{FB5869D1-4111-4FBB-8E45-CB694868CE16}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="128">
   <si>
     <t>order_color</t>
   </si>
@@ -221,9 +224,6 @@
     <t>LSP</t>
   </si>
   <si>
-    <t>Lasting Special Places</t>
-  </si>
-  <si>
     <t>This subgoal captures the conservation status of geographic locations that hold significant aesthetic, spiritual, cultural, recreational, or existence value for people.</t>
   </si>
   <si>
@@ -275,7 +275,46 @@
     <t>SPP(layers)</t>
   </si>
   <si>
-    <t>Provisión de alimentos</t>
+    <t>Lugares Especiales Perdurables</t>
+  </si>
+  <si>
+    <t>Food Provision</t>
+  </si>
+  <si>
+    <t>Artisanal\nFishing Opportunities</t>
+  </si>
+  <si>
+    <t>Carbon\nSequestration</t>
+  </si>
+  <si>
+    <t>Coastal\nProtection</t>
+  </si>
+  <si>
+    <t>Tourism\nand Recreation</t>
+  </si>
+  <si>
+    <t>Livelihoods\nand Economies</t>
+  </si>
+  <si>
+    <t>Sence\nof Place</t>
+  </si>
+  <si>
+    <t>Iconic\nSpecies</t>
+  </si>
+  <si>
+    <t>Enduring\nSpecial\nPlaces</t>
+  </si>
+  <si>
+    <t>Clean\nWaters</t>
+  </si>
+  <si>
+    <t>Biodiversity</t>
+  </si>
+  <si>
+    <t>Livelihoods and Economies</t>
+  </si>
+  <si>
+    <t>Sence of Place</t>
   </si>
   <si>
     <t>Pesca</t>
@@ -284,46 +323,106 @@
     <t>Maricultura</t>
   </si>
   <si>
+    <t>Oportunidades de\nPesca Artesanal</t>
+  </si>
+  <si>
     <t>Productos Naturales</t>
   </si>
   <si>
+    <t>Secuestro\nde Carbono</t>
+  </si>
+  <si>
     <t>Protección\nCostera</t>
   </si>
   <si>
-    <t>Turismo y \nRecreación</t>
+    <t>Turismo y\nRecreación</t>
+  </si>
+  <si>
+    <t>Economía y Medios de Vida</t>
+  </si>
+  <si>
+    <t>Medios\nde Vida</t>
   </si>
   <si>
     <t>Economías</t>
   </si>
   <si>
-    <t>Medios de vida y Economías</t>
-  </si>
-  <si>
-    <t>Sentido de lugar</t>
+    <t>Sentido de Lugar</t>
   </si>
   <si>
     <t>Especies\nIcónicas</t>
   </si>
   <si>
+    <t>Lugares\nEspeciales\nPerdurables</t>
+  </si>
+  <si>
     <t>Aguas Limpias</t>
   </si>
   <si>
     <t>Biodiversidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Especies </t>
-  </si>
-  <si>
-    <t>Oportunidad de\nPesca Artesanal</t>
+    <t xml:space="preserve">Hábitats </t>
+  </si>
+  <si>
+    <t>Especies</t>
+  </si>
+  <si>
+    <t>Provisión de Alimentos\ndesde\nPesquerias Artesanales y Maricultura</t>
+  </si>
+  <si>
+    <t>Provisión de Alimentos</t>
+  </si>
+  <si>
+    <t>Aguas\nLimpias</t>
   </si>
   <si>
     <t>Sentido\nde Lugar</t>
   </si>
   <si>
-    <t>Medios\nde vida</t>
-  </si>
-  <si>
-    <t>Secuestro\nde carbono</t>
+    <t>Oportunidades\nde Pesca\nArtesanal</t>
+  </si>
+  <si>
+    <t>Productos\nNaturales</t>
+  </si>
+  <si>
+    <t>Provisión de\nAlimentos</t>
+  </si>
+  <si>
+    <t>Economía\ny Medios\nde Vida</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Oportunidades de Pesca Artesanal</t>
+  </si>
+  <si>
+    <t>Secuestro de Carbono</t>
+  </si>
+  <si>
+    <t>Protección Costera</t>
+  </si>
+  <si>
+    <t>Turismo y Recreación</t>
+  </si>
+  <si>
+    <t>Medios de Vida</t>
+  </si>
+  <si>
+    <t>Especies Icónicas</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Submeta</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>Hábitat</t>
   </si>
 </sst>
 </file>
@@ -379,9 +478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,15 +777,16 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="27.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.2</v>
       </c>
@@ -735,6 +835,606 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.2</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.1</v>
+      </c>
+      <c r="B11">
+        <v>7.1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7.3</v>
+      </c>
+      <c r="B12">
+        <v>7.2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8.1</v>
+      </c>
+      <c r="B14">
+        <v>8.1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10.1</v>
+      </c>
+      <c r="B18">
+        <v>10.1</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10.3</v>
+      </c>
+      <c r="B19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E9BC6B-4CCC-406E-B044-2FA1DA7CED16}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>79</v>
       </c>
       <c r="G2" t="s">
@@ -750,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -770,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -782,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -802,7 +1502,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -814,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -831,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -843,7 +1543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -860,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -872,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -889,7 +1589,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -901,7 +1601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -912,359 +1612,856 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="B10">
+        <v>6.1</v>
+      </c>
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="B11">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8.1</v>
+      </c>
+      <c r="B14">
+        <v>8.1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484DF491-915D-4567-8380-B25BC14702E0}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>49</v>
       </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AADF50-820B-4F93-BF88-9542F5643797}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>8.1</v>
-      </c>
-      <c r="B14">
-        <v>8.1</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15">
-        <v>0.5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>10.1</v>
-      </c>
-      <c r="B18">
-        <v>10.1</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
       <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18">
-        <v>0.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>10.3</v>
-      </c>
-      <c r="B19">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
       <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19">
-        <v>0.5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
